--- a/Örnek 16 - En Küçük Sayı Bulma.xlsx
+++ b/Örnek 16 - En Küçük Sayı Bulma.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamis\Desktop\Excel - MAH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6A4D27C-BC55-447A-9A17-D215099D8F87}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86D43AD1-9DF6-4039-9046-BB8163883483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa 1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>sayılar</t>
   </si>
@@ -44,14 +47,20 @@
   <si>
     <t>Bölüm:</t>
   </si>
+  <si>
+    <t>Muhammed Ali Harmancı</t>
+  </si>
+  <si>
+    <t>Yönetim Bilişim Sistemleri</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00\ _T_L_-;\-* #,##0.00\ _T_L_-;_-* &quot;-&quot;??\ _T_L_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="_-* #,##0\ _T_L_-;\-* #,##0\ _T_L_-;_-* &quot;-&quot;??\ _T_L_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _T_L_-;\-* #,##0.00\ _T_L_-;_-* &quot;-&quot;??\ _T_L_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _T_L_-;\-* #,##0\ _T_L_-;_-* &quot;-&quot;??\ _T_L_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -187,7 +196,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -200,7 +209,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -489,48 +498,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor indexed="11"/>
   </sheetPr>
   <dimension ref="D2:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="33.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="33.125" customWidth="1"/>
+    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="4:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="4:15" ht="13.6" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="4:15" ht="34" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="6"/>
+      <c r="M3" s="6">
+        <v>20215070055</v>
+      </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="4:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="4:15" ht="34" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D4" s="2">
         <v>35</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="6"/>
+      <c r="M4" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="4:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="4:15" ht="34" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D5" s="2">
         <v>15</v>
       </c>
@@ -540,67 +553,72 @@
       <c r="L5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="6"/>
+      <c r="M5" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="4:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="4:15" ht="34" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D6" s="2">
         <v>85</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="4:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G6" s="4">
+        <f>MIN(D4:D17)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15" ht="34" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D7" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="4:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="4:15" ht="34" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D8" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="4:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="4:15" ht="34" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D9" s="2">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="4:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="4:15" ht="34" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D10" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="4:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="4:15" ht="34" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D11" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="4:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="4:15" ht="34" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D12" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="4:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="4:15" ht="34" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D13" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="4:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="4:15" ht="34" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D14" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="4:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="4:15" ht="34" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D15" s="2">
         <v>658</v>
       </c>
     </row>
-    <row r="16" spans="4:15" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="4:15" ht="34" thickBot="1" x14ac:dyDescent="0.6">
       <c r="D16" s="2">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="17" spans="4:4" ht="33.299999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" s="2">
         <v>232</v>
       </c>
